--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/REMISIONES CENTRAL ENE-22.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/REMISIONES CENTRAL ENE-22.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15240" windowHeight="10305" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15240" windowHeight="10305" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="CENTRAL ENERO " sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="72">
   <si>
     <t>Folio-Ticket</t>
   </si>
@@ -310,12 +311,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="11">
@@ -451,7 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -513,6 +520,10 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -863,10 +874,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
   <dimension ref="A1:I142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C157" sqref="C156:C157"/>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5022,10 +5036,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5451,4 +5468,3272 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="B3:H143"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="29">
+        <v>8264</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="29">
+        <v>8.5</v>
+      </c>
+      <c r="F3" s="29">
+        <v>399.5</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="27">
+        <v>8202</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="27">
+        <v>617.5</v>
+      </c>
+      <c r="F4" s="27">
+        <v>30665</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="29">
+        <v>8277</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="29">
+        <v>480.5</v>
+      </c>
+      <c r="F5" s="29">
+        <v>44971</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="27">
+        <v>8307</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="27">
+        <v>550</v>
+      </c>
+      <c r="F6" s="27">
+        <v>25850</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="29">
+        <v>8266</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="29">
+        <v>114.88</v>
+      </c>
+      <c r="F7" s="29">
+        <v>5300.04</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="27">
+        <v>8275</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="27">
+        <v>2</v>
+      </c>
+      <c r="F8" s="27">
+        <v>420</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="29">
+        <v>8177</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="29">
+        <v>11.79</v>
+      </c>
+      <c r="F9" s="29">
+        <v>594.17999999999995</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="27">
+        <v>8176</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="27">
+        <v>8.1</v>
+      </c>
+      <c r="F10" s="27">
+        <v>388.8</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="27">
+        <v>8179</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="27">
+        <v>126.4</v>
+      </c>
+      <c r="F11" s="27">
+        <v>19510.8</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="27">
+        <v>8193</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="27">
+        <v>15.34</v>
+      </c>
+      <c r="F12" s="27">
+        <v>1380.6</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="29">
+        <v>8194</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="29">
+        <v>2.29</v>
+      </c>
+      <c r="F13" s="29">
+        <v>247.32</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="29">
+        <v>8196</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="29">
+        <v>512.70000000000005</v>
+      </c>
+      <c r="F14" s="29">
+        <v>80126.8</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="29">
+        <v>8200</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="29">
+        <v>83.49</v>
+      </c>
+      <c r="F15" s="29">
+        <v>5165.9799999999996</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="29">
+        <v>8204</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="29">
+        <v>79.349999999999994</v>
+      </c>
+      <c r="F16" s="29">
+        <v>3258.1</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="27">
+        <v>8205</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="27">
+        <v>2.95</v>
+      </c>
+      <c r="F17" s="27">
+        <v>472</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="29">
+        <v>8208</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="29">
+        <v>10.83</v>
+      </c>
+      <c r="F18" s="29">
+        <v>2558.1799999999998</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="29">
+        <v>8216</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="29">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="F19" s="29">
+        <v>11429.6</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="29">
+        <v>8228</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="29">
+        <v>45</v>
+      </c>
+      <c r="F20" s="29">
+        <v>1470</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="27">
+        <v>8240</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="27">
+        <v>18.3</v>
+      </c>
+      <c r="F21" s="27">
+        <v>1407</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="27">
+        <v>8245</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="27">
+        <v>870.6</v>
+      </c>
+      <c r="F22" s="27">
+        <v>120922.4</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="27">
+        <v>8247</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="27">
+        <v>20.2</v>
+      </c>
+      <c r="F23" s="27">
+        <v>4686.3999999999996</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="29">
+        <v>8249</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="29">
+        <v>46.9</v>
+      </c>
+      <c r="F24" s="29">
+        <v>5822.6</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="27">
+        <v>8251</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="27">
+        <v>17.8</v>
+      </c>
+      <c r="F25" s="27">
+        <v>1530.8</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="27">
+        <v>8256</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="27">
+        <v>85</v>
+      </c>
+      <c r="F26" s="27">
+        <v>10637</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="29">
+        <v>8270</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="29">
+        <v>15.7</v>
+      </c>
+      <c r="F27" s="29">
+        <v>1146.2</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="27">
+        <v>8273</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="27">
+        <v>952.6</v>
+      </c>
+      <c r="F28" s="27">
+        <v>141067.6</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="27">
+        <v>8274</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="27">
+        <v>28.6</v>
+      </c>
+      <c r="F29" s="27">
+        <v>5205.2</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="29">
+        <v>8279</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="29">
+        <v>18.5</v>
+      </c>
+      <c r="F30" s="29">
+        <v>1487</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="27">
+        <v>8283</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="27">
+        <v>484.2</v>
+      </c>
+      <c r="F31" s="27">
+        <v>71469.2</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="29">
+        <v>8284</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="29">
+        <v>41.2</v>
+      </c>
+      <c r="F32" s="29">
+        <v>2041.4</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="29">
+        <v>8300</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="29">
+        <v>58.6</v>
+      </c>
+      <c r="F33" s="29">
+        <v>5828</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="27">
+        <v>8215</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="27">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F34" s="27">
+        <v>54.3</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="27">
+        <v>8263</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="27">
+        <v>3.55</v>
+      </c>
+      <c r="F35" s="27">
+        <v>193.4</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="29">
+        <v>8201</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="29">
+        <v>0</v>
+      </c>
+      <c r="F36" s="29">
+        <v>0</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="27">
+        <v>8171</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="27">
+        <v>6.2</v>
+      </c>
+      <c r="F37" s="27">
+        <v>560</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="29">
+        <v>8234</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="29">
+        <v>7.4</v>
+      </c>
+      <c r="F38" s="29">
+        <v>665.2</v>
+      </c>
+      <c r="G38" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="29">
+        <v>8294</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="29">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F39" s="29">
+        <v>738</v>
+      </c>
+      <c r="G39" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="29">
+        <v>8172</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="29">
+        <v>55.2</v>
+      </c>
+      <c r="F40" s="29">
+        <v>3643.2</v>
+      </c>
+      <c r="G40" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="27">
+        <v>8174</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="27">
+        <v>360.4</v>
+      </c>
+      <c r="F41" s="27">
+        <v>1081.2</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="27">
+        <v>8175</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="27">
+        <v>181.4</v>
+      </c>
+      <c r="F42" s="27">
+        <v>17233</v>
+      </c>
+      <c r="G42" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="29">
+        <v>8178</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="29">
+        <v>3.08</v>
+      </c>
+      <c r="F43" s="29">
+        <v>246.4</v>
+      </c>
+      <c r="G43" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="27">
+        <v>8181</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="27">
+        <v>10.16</v>
+      </c>
+      <c r="F44" s="27">
+        <v>601.29</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="29">
+        <v>8182</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="29">
+        <v>4.04</v>
+      </c>
+      <c r="F45" s="29">
+        <v>323.2</v>
+      </c>
+      <c r="G45" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="27">
+        <v>8183</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="27">
+        <v>47.6</v>
+      </c>
+      <c r="F46" s="27">
+        <v>142.80000000000001</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="27">
+        <v>8186</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="27">
+        <v>15.08</v>
+      </c>
+      <c r="F47" s="27">
+        <v>2503.2800000000002</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="27">
+        <v>8187</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="27">
+        <v>4.03</v>
+      </c>
+      <c r="F48" s="27">
+        <v>701.22</v>
+      </c>
+      <c r="G48" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="27">
+        <v>8189</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="27">
+        <v>3.73</v>
+      </c>
+      <c r="F49" s="27">
+        <v>369.74</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="29">
+        <v>8190</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="29">
+        <v>31.4</v>
+      </c>
+      <c r="F50" s="29">
+        <v>94.2</v>
+      </c>
+      <c r="G50" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="27">
+        <v>8191</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="27">
+        <v>39.85</v>
+      </c>
+      <c r="F51" s="27">
+        <v>2948.9</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="27">
+        <v>8195</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="27">
+        <v>65.05</v>
+      </c>
+      <c r="F52" s="27">
+        <v>3697.3</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="27">
+        <v>8197</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="27">
+        <v>25.4</v>
+      </c>
+      <c r="F53" s="27">
+        <v>76.2</v>
+      </c>
+      <c r="G53" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="27">
+        <v>8203</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="27">
+        <v>93.07</v>
+      </c>
+      <c r="F54" s="27">
+        <v>307.98</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" s="28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="29">
+        <v>8206</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" s="29">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F55" s="29">
+        <v>60.3</v>
+      </c>
+      <c r="G55" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="27">
+        <v>8209</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="27">
+        <v>1</v>
+      </c>
+      <c r="F56" s="27">
+        <v>90</v>
+      </c>
+      <c r="G56" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="29">
+        <v>8210</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="29">
+        <v>80</v>
+      </c>
+      <c r="F57" s="29">
+        <v>7360</v>
+      </c>
+      <c r="G57" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="27">
+        <v>8213</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" s="27">
+        <v>2</v>
+      </c>
+      <c r="F58" s="27">
+        <v>240</v>
+      </c>
+      <c r="G58" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="29">
+        <v>8214</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" s="29">
+        <v>314</v>
+      </c>
+      <c r="F59" s="29">
+        <v>31132.400000000001</v>
+      </c>
+      <c r="G59" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="27">
+        <v>8217</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" s="27">
+        <v>159.19999999999999</v>
+      </c>
+      <c r="F60" s="27">
+        <v>477.6</v>
+      </c>
+      <c r="G60" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="29">
+        <v>8220</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="29">
+        <v>59.4</v>
+      </c>
+      <c r="F61" s="29">
+        <v>5464.8</v>
+      </c>
+      <c r="G61" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="29">
+        <v>8222</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62" s="29">
+        <v>87.1</v>
+      </c>
+      <c r="F62" s="29">
+        <v>372.6</v>
+      </c>
+      <c r="G62" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="29">
+        <v>8224</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" s="29">
+        <v>107.2</v>
+      </c>
+      <c r="F63" s="29">
+        <v>321.60000000000002</v>
+      </c>
+      <c r="G63" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="27">
+        <v>8226</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64" s="27">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="F64" s="27">
+        <v>6679.2</v>
+      </c>
+      <c r="G64" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="29">
+        <v>8227</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65" s="29">
+        <v>3</v>
+      </c>
+      <c r="F65" s="29">
+        <v>522</v>
+      </c>
+      <c r="G65" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="29">
+        <v>8231</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" s="29">
+        <v>17</v>
+      </c>
+      <c r="F66" s="29">
+        <v>51</v>
+      </c>
+      <c r="G66" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="27">
+        <v>8235</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" s="27">
+        <v>31.4</v>
+      </c>
+      <c r="F67" s="27">
+        <v>188.4</v>
+      </c>
+      <c r="G67" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="29">
+        <v>8236</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68" s="29">
+        <v>280.14</v>
+      </c>
+      <c r="F68" s="29">
+        <v>43701.84</v>
+      </c>
+      <c r="G68" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="29">
+        <v>8238</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69" s="29">
+        <v>14.4</v>
+      </c>
+      <c r="F69" s="29">
+        <v>43.2</v>
+      </c>
+      <c r="G69" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="29">
+        <v>8239</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70" s="29">
+        <v>50</v>
+      </c>
+      <c r="F70" s="29">
+        <v>3700</v>
+      </c>
+      <c r="G70" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="27">
+        <v>8241</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71" s="27">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="F71" s="27">
+        <v>3541.6</v>
+      </c>
+      <c r="G71" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="29">
+        <v>8243</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" s="29">
+        <v>8</v>
+      </c>
+      <c r="F72" s="29">
+        <v>1328</v>
+      </c>
+      <c r="G72" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="29">
+        <v>8252</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" s="29">
+        <v>8.1</v>
+      </c>
+      <c r="F73" s="29">
+        <v>1344.6</v>
+      </c>
+      <c r="G73" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="27">
+        <v>8253</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E74" s="27">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="F74" s="27">
+        <v>196.2</v>
+      </c>
+      <c r="G74" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="29">
+        <v>8254</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E75" s="29">
+        <v>145.6</v>
+      </c>
+      <c r="F75" s="29">
+        <v>13832</v>
+      </c>
+      <c r="G75" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="29">
+        <v>8255</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" s="29">
+        <v>210.4</v>
+      </c>
+      <c r="F76" s="29">
+        <v>19988</v>
+      </c>
+      <c r="G76" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="27">
+        <v>8259</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" s="27">
+        <v>71.2</v>
+      </c>
+      <c r="F77" s="27">
+        <v>7974.4</v>
+      </c>
+      <c r="G77" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="29">
+        <v>8260</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" s="29">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F78" s="29">
+        <v>856.8</v>
+      </c>
+      <c r="G78" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="27">
+        <v>8265</v>
+      </c>
+      <c r="C79" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E79" s="27">
+        <v>515.35</v>
+      </c>
+      <c r="F79" s="27">
+        <v>1578.6</v>
+      </c>
+      <c r="G79" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="27">
+        <v>8269</v>
+      </c>
+      <c r="C80" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E80" s="27">
+        <v>67.8</v>
+      </c>
+      <c r="F80" s="27">
+        <v>6237.6</v>
+      </c>
+      <c r="G80" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="27">
+        <v>8271</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E81" s="27">
+        <v>6.1</v>
+      </c>
+      <c r="F81" s="27">
+        <v>1110.2</v>
+      </c>
+      <c r="G81" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="29">
+        <v>8272</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E82" s="29">
+        <v>47.4</v>
+      </c>
+      <c r="F82" s="29">
+        <v>3697.2</v>
+      </c>
+      <c r="G82" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="29">
+        <v>8276</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E83" s="29">
+        <v>17.8</v>
+      </c>
+      <c r="F83" s="29">
+        <v>53.4</v>
+      </c>
+      <c r="G83" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="27">
+        <v>8281</v>
+      </c>
+      <c r="C84" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E84" s="27">
+        <v>1</v>
+      </c>
+      <c r="F84" s="27">
+        <v>70</v>
+      </c>
+      <c r="G84" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="29">
+        <v>8282</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E85" s="29">
+        <v>99.2</v>
+      </c>
+      <c r="F85" s="29">
+        <v>297.60000000000002</v>
+      </c>
+      <c r="G85" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="27">
+        <v>8285</v>
+      </c>
+      <c r="C86" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E86" s="27">
+        <v>3.1</v>
+      </c>
+      <c r="F86" s="27">
+        <v>520.79999999999995</v>
+      </c>
+      <c r="G86" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="27">
+        <v>8289</v>
+      </c>
+      <c r="C87" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87" s="27">
+        <v>2</v>
+      </c>
+      <c r="F87" s="27">
+        <v>86</v>
+      </c>
+      <c r="G87" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" s="28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="27">
+        <v>8291</v>
+      </c>
+      <c r="C88" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88" s="27">
+        <v>189.6</v>
+      </c>
+      <c r="F88" s="27">
+        <v>16056</v>
+      </c>
+      <c r="G88" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="29">
+        <v>8292</v>
+      </c>
+      <c r="C89" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89" s="29">
+        <v>6.8</v>
+      </c>
+      <c r="F89" s="29">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="G89" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="29">
+        <v>8296</v>
+      </c>
+      <c r="C90" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E90" s="29">
+        <v>109.6</v>
+      </c>
+      <c r="F90" s="29">
+        <v>337.2</v>
+      </c>
+      <c r="G90" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="29">
+        <v>8298</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E91" s="29">
+        <v>340.2</v>
+      </c>
+      <c r="F91" s="29">
+        <v>1020.6</v>
+      </c>
+      <c r="G91" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="27">
+        <v>8299</v>
+      </c>
+      <c r="C92" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D92" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E92" s="27">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F92" s="27">
+        <v>272.8</v>
+      </c>
+      <c r="G92" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="27">
+        <v>8301</v>
+      </c>
+      <c r="C93" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E93" s="27">
+        <v>22.4</v>
+      </c>
+      <c r="F93" s="27">
+        <v>1926.4</v>
+      </c>
+      <c r="G93" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="29">
+        <v>8302</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D94" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E94" s="29">
+        <v>134.19999999999999</v>
+      </c>
+      <c r="F94" s="29">
+        <v>12346.4</v>
+      </c>
+      <c r="G94" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="27">
+        <v>8303</v>
+      </c>
+      <c r="C95" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D95" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E95" s="27">
+        <v>228.2</v>
+      </c>
+      <c r="F95" s="27">
+        <v>16527</v>
+      </c>
+      <c r="G95" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H95" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="29">
+        <v>8304</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E96" s="29">
+        <v>8</v>
+      </c>
+      <c r="F96" s="29">
+        <v>1328</v>
+      </c>
+      <c r="G96" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="27">
+        <v>8305</v>
+      </c>
+      <c r="C97" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D97" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E97" s="27">
+        <v>60</v>
+      </c>
+      <c r="F97" s="27">
+        <v>4480</v>
+      </c>
+      <c r="G97" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="29">
+        <v>8306</v>
+      </c>
+      <c r="C98" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E98" s="29">
+        <v>7</v>
+      </c>
+      <c r="F98" s="29">
+        <v>448</v>
+      </c>
+      <c r="G98" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H98" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="27">
+        <v>8308</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D99" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E99" s="27">
+        <v>11.4</v>
+      </c>
+      <c r="F99" s="27">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G99" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H99" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="27">
+        <v>8311</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D100" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E100" s="27">
+        <v>6.9</v>
+      </c>
+      <c r="F100" s="27">
+        <v>668.2</v>
+      </c>
+      <c r="G100" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H100" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="29">
+        <v>8268</v>
+      </c>
+      <c r="C101" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E101" s="29">
+        <v>25</v>
+      </c>
+      <c r="F101" s="29">
+        <v>1000</v>
+      </c>
+      <c r="G101" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H101" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="29">
+        <v>8185</v>
+      </c>
+      <c r="C102" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E102" s="29">
+        <v>19.23</v>
+      </c>
+      <c r="F102" s="29">
+        <v>997.32</v>
+      </c>
+      <c r="G102" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H102" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="29">
+        <v>8173</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E103" s="29">
+        <v>12.64</v>
+      </c>
+      <c r="F103" s="29">
+        <v>1289.28</v>
+      </c>
+      <c r="G103" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H103" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="29">
+        <v>8180</v>
+      </c>
+      <c r="C104" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E104" s="29">
+        <v>5.47</v>
+      </c>
+      <c r="F104" s="29">
+        <v>330.65</v>
+      </c>
+      <c r="G104" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H104" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="29">
+        <v>8188</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E105" s="29">
+        <v>13.53</v>
+      </c>
+      <c r="F105" s="29">
+        <v>2191.86</v>
+      </c>
+      <c r="G105" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H105" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="29">
+        <v>8192</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E106" s="29">
+        <v>31.5</v>
+      </c>
+      <c r="F106" s="29">
+        <v>3687</v>
+      </c>
+      <c r="G106" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H106" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="27">
+        <v>8219</v>
+      </c>
+      <c r="C107" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E107" s="27">
+        <v>12.8</v>
+      </c>
+      <c r="F107" s="27">
+        <v>2073.6</v>
+      </c>
+      <c r="G107" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H107" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B108" s="27">
+        <v>8221</v>
+      </c>
+      <c r="C108" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E108" s="27">
+        <v>39</v>
+      </c>
+      <c r="F108" s="27">
+        <v>2958</v>
+      </c>
+      <c r="G108" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H108" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="27">
+        <v>8223</v>
+      </c>
+      <c r="C109" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E109" s="27">
+        <v>3.8</v>
+      </c>
+      <c r="F109" s="27">
+        <v>682.4</v>
+      </c>
+      <c r="G109" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H109" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="27">
+        <v>8229</v>
+      </c>
+      <c r="C110" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E110" s="27">
+        <v>14.4</v>
+      </c>
+      <c r="F110" s="27">
+        <v>2122.8000000000002</v>
+      </c>
+      <c r="G110" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H110" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="27">
+        <v>8230</v>
+      </c>
+      <c r="C111" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E111" s="27">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="F111" s="27">
+        <v>2693.6</v>
+      </c>
+      <c r="G111" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H111" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="29">
+        <v>8242</v>
+      </c>
+      <c r="C112" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E112" s="29">
+        <v>47.82</v>
+      </c>
+      <c r="F112" s="29">
+        <v>6087.64</v>
+      </c>
+      <c r="G112" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H112" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="29">
+        <v>8246</v>
+      </c>
+      <c r="C113" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E113" s="29">
+        <v>3.9</v>
+      </c>
+      <c r="F113" s="29">
+        <v>351</v>
+      </c>
+      <c r="G113" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H113" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B114" s="29">
+        <v>8250</v>
+      </c>
+      <c r="C114" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114" s="29">
+        <v>12.1</v>
+      </c>
+      <c r="F114" s="29">
+        <v>1258.4000000000001</v>
+      </c>
+      <c r="G114" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H114" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="29">
+        <v>8258</v>
+      </c>
+      <c r="C115" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D115" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E115" s="29">
+        <v>60</v>
+      </c>
+      <c r="F115" s="29">
+        <v>912</v>
+      </c>
+      <c r="G115" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H115" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B116" s="29">
+        <v>8288</v>
+      </c>
+      <c r="C116" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D116" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" s="29">
+        <v>12.9</v>
+      </c>
+      <c r="F116" s="29">
+        <v>2089.8000000000002</v>
+      </c>
+      <c r="G116" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H116" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="29">
+        <v>8290</v>
+      </c>
+      <c r="C117" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D117" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E117" s="29">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F117" s="29">
+        <v>136.4</v>
+      </c>
+      <c r="G117" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H117" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B118" s="27">
+        <v>8295</v>
+      </c>
+      <c r="C118" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D118" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E118" s="27">
+        <v>5.8</v>
+      </c>
+      <c r="F118" s="27">
+        <v>336.4</v>
+      </c>
+      <c r="G118" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H118" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B119" s="27">
+        <v>8297</v>
+      </c>
+      <c r="C119" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D119" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E119" s="27">
+        <v>1.7</v>
+      </c>
+      <c r="F119" s="27">
+        <v>153.6</v>
+      </c>
+      <c r="G119" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H119" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B120" s="29">
+        <v>8310</v>
+      </c>
+      <c r="C120" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E120" s="29">
+        <v>74.7</v>
+      </c>
+      <c r="F120" s="29">
+        <v>9744</v>
+      </c>
+      <c r="G120" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H120" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B121" s="27">
+        <v>8233</v>
+      </c>
+      <c r="C121" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E121" s="27">
+        <v>37.4</v>
+      </c>
+      <c r="F121" s="27">
+        <v>1944.8</v>
+      </c>
+      <c r="G121" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H121" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B122" s="27">
+        <v>8267</v>
+      </c>
+      <c r="C122" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E122" s="27">
+        <v>45.24</v>
+      </c>
+      <c r="F122" s="27">
+        <v>2100.12</v>
+      </c>
+      <c r="G122" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H122" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B123" s="29">
+        <v>8198</v>
+      </c>
+      <c r="C123" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E123" s="29">
+        <v>61.41</v>
+      </c>
+      <c r="F123" s="29">
+        <v>4121.8999999999996</v>
+      </c>
+      <c r="G123" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H123" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B124" s="29">
+        <v>8184</v>
+      </c>
+      <c r="C124" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E124" s="29">
+        <v>22</v>
+      </c>
+      <c r="F124" s="29">
+        <v>1892</v>
+      </c>
+      <c r="G124" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H124" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B125" s="29">
+        <v>8286</v>
+      </c>
+      <c r="C125" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D125" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E125" s="29">
+        <v>16.2</v>
+      </c>
+      <c r="F125" s="29">
+        <v>1944</v>
+      </c>
+      <c r="G125" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H125" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B126" s="27">
+        <v>8199</v>
+      </c>
+      <c r="C126" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E126" s="27">
+        <v>20.25</v>
+      </c>
+      <c r="F126" s="27">
+        <v>1620</v>
+      </c>
+      <c r="G126" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H126" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B127" s="29">
+        <v>8212</v>
+      </c>
+      <c r="C127" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E127" s="29">
+        <v>15.86</v>
+      </c>
+      <c r="F127" s="29">
+        <v>1170.46</v>
+      </c>
+      <c r="G127" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H127" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B128" s="27">
+        <v>8225</v>
+      </c>
+      <c r="C128" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E128" s="27">
+        <v>25.4</v>
+      </c>
+      <c r="F128" s="27">
+        <v>2032</v>
+      </c>
+      <c r="G128" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H128" s="28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B129" s="27">
+        <v>8248</v>
+      </c>
+      <c r="C129" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D129" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E129" s="27">
+        <v>19.8</v>
+      </c>
+      <c r="F129" s="27">
+        <v>1466.4</v>
+      </c>
+      <c r="G129" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H129" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B130" s="27">
+        <v>8257</v>
+      </c>
+      <c r="C130" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D130" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E130" s="27">
+        <v>47</v>
+      </c>
+      <c r="F130" s="27">
+        <v>5170</v>
+      </c>
+      <c r="G130" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H130" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B131" s="27">
+        <v>8278</v>
+      </c>
+      <c r="C131" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D131" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E131" s="27">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F131" s="27">
+        <v>1567.8</v>
+      </c>
+      <c r="G131" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H131" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B132" s="27">
+        <v>8287</v>
+      </c>
+      <c r="C132" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D132" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E132" s="27">
+        <v>17.3</v>
+      </c>
+      <c r="F132" s="27">
+        <v>1365.4</v>
+      </c>
+      <c r="G132" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H132" s="28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B133" s="27">
+        <v>8207</v>
+      </c>
+      <c r="C133" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E133" s="27">
+        <v>504.8</v>
+      </c>
+      <c r="F133" s="27">
+        <v>23994.799999999999</v>
+      </c>
+      <c r="G133" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H133" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B134" s="27">
+        <v>8211</v>
+      </c>
+      <c r="C134" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E134" s="27">
+        <v>1001</v>
+      </c>
+      <c r="F134" s="27">
+        <v>48415</v>
+      </c>
+      <c r="G134" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H134" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B135" s="29">
+        <v>8218</v>
+      </c>
+      <c r="C135" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D135" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E135" s="29">
+        <v>1000.2</v>
+      </c>
+      <c r="F135" s="29">
+        <v>48349.4</v>
+      </c>
+      <c r="G135" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H135" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B136" s="29">
+        <v>8232</v>
+      </c>
+      <c r="C136" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E136" s="29">
+        <v>502.2</v>
+      </c>
+      <c r="F136" s="29">
+        <v>23905.4</v>
+      </c>
+      <c r="G136" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H136" s="30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B137" s="27">
+        <v>8237</v>
+      </c>
+      <c r="C137" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E137" s="27">
+        <v>500.6</v>
+      </c>
+      <c r="F137" s="27">
+        <v>24028.799999999999</v>
+      </c>
+      <c r="G137" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H137" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B138" s="27">
+        <v>8244</v>
+      </c>
+      <c r="C138" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E138" s="27">
+        <v>600</v>
+      </c>
+      <c r="F138" s="27">
+        <v>28200</v>
+      </c>
+      <c r="G138" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H138" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B139" s="27">
+        <v>8261</v>
+      </c>
+      <c r="C139" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D139" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E139" s="27">
+        <v>505.2</v>
+      </c>
+      <c r="F139" s="27">
+        <v>22228.799999999999</v>
+      </c>
+      <c r="G139" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H139" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B140" s="29">
+        <v>8262</v>
+      </c>
+      <c r="C140" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D140" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E140" s="29">
+        <v>97</v>
+      </c>
+      <c r="F140" s="29">
+        <v>6596</v>
+      </c>
+      <c r="G140" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H140" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B141" s="29">
+        <v>8280</v>
+      </c>
+      <c r="C141" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D141" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E141" s="29">
+        <v>866.3</v>
+      </c>
+      <c r="F141" s="29">
+        <v>34820.800000000003</v>
+      </c>
+      <c r="G141" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H141" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B142" s="27">
+        <v>8293</v>
+      </c>
+      <c r="C142" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D142" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E142" s="27">
+        <v>680.8</v>
+      </c>
+      <c r="F142" s="27">
+        <v>29955.200000000001</v>
+      </c>
+      <c r="G142" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H142" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B143" s="29">
+        <v>8309</v>
+      </c>
+      <c r="C143" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D143" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E143" s="29">
+        <v>1007.4</v>
+      </c>
+      <c r="F143" s="29">
+        <v>45463.4</v>
+      </c>
+      <c r="G143" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H143" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="B3:H143">
+    <sortCondition ref="D3:D143"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>